--- a/biology/Botanique/Mitella/Mitella.xlsx
+++ b/biology/Botanique/Mitella/Mitella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mitella
 Mitella est un genre de plantes à fleurs de la famille des Saxifragaceae, comprenant entre vingt et trente espèces originaires des régions tempérées et arctiques de l'Amérique du Nord et de l'Asie.
@@ -512,10 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom scientifique complet (avec auteur) de ce taxon est Mitella L., choisi en 1753 par le naturaliste suédois Carl von Linné[1].
-Mitella a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom scientifique complet (avec auteur) de ce taxon est Mitella L., choisi en 1753 par le naturaliste suédois Carl von Linné.
+Mitella a pour synonymes :
 Drummondia DC.
 Mitellastra Howell
 Mitellopsis Meisn.
@@ -548,7 +562,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre signifie « petite mitre », du latin mitra avec le suffixe diminutif -ella , car on dit que les fleurs ressemblent à des coiffes d'évêques. En latin classique, cependant, mitella signifie « coiffe de femme » ou « fronde ». Le latin mitra vient du grec mítrā, signifiant « ceinture », « bandeau », ou « turban »[réf. souhaitée]. 
 </t>
@@ -579,11 +595,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Mitella comprend des plantes vivaces poussant à partir d'un rhizome écailleux, portant de larges feuilles en forme de cœur ou de pique près de leurs bases et des fleurs à cinq pétales disposées en une longue grappe ou un épi.
-Liste des espèces
-Selon GBIF       (4 septembre 2021)[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mitella</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mitella</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (4 septembre 2021) :
 Mitella acerina Makino
 Mitella amamiana Y.Okuyama
 Mitella breweri A.Gray
